--- a/EJERCICIO GRANDE.xlsx
+++ b/EJERCICIO GRANDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{837955DC-3BBE-4ACB-ADFB-5E8E517C0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D6AD54-8552-4C56-9696-7705B21E914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16275" yWindow="5700" windowWidth="21600" windowHeight="11385" xr2:uid="{A0F70BD7-73D5-4CD4-9855-8D1CB71C9F88}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>RUT</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>ID PERSONA</t>
+  </si>
+  <si>
+    <t>id persona</t>
   </si>
 </sst>
 </file>
@@ -234,9 +237,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -557,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04A08C8-CDFD-4A34-8914-2DB5F70EA304}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,218 +570,236 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>44975</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>54724</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>23844</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -789,71 +809,71 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>25488</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>68977</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>85964</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>32659</v>
       </c>
     </row>
